--- a/data/trans_orig/Q5410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4226</v>
+        <v>4700</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002865526581113003</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01444406234755614</v>
+        <v>0.01606287334667049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4493</v>
+        <v>5149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002614239136461955</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01310154798785097</v>
+        <v>0.01501447126114351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5341</v>
+        <v>5321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00272992830695122</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008403884779095604</v>
+        <v>0.008372955363873752</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6109</v>
+        <v>5874</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005910594355819682</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02088040408738385</v>
+        <v>0.0200770802399718</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>2979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8151</v>
+        <v>9620</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008687821197226147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002592522164988749</v>
+        <v>0.002600058540235345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02376961917672473</v>
+        <v>0.02805084315864615</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -857,19 +857,19 @@
         <v>4709</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10986</v>
+        <v>10644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007409225404312561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002830081985502776</v>
+        <v>0.002805092937082222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01728715757550673</v>
+        <v>0.01674849619403643</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>290015</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>284724</v>
+        <v>285652</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>291772</v>
+        <v>291770</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9912238790630673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9731380304186571</v>
+        <v>0.9763112074754774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9972264835382574</v>
+        <v>0.9972215562781507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>367</v>
@@ -907,19 +907,19 @@
         <v>339058</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>334061</v>
+        <v>332111</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>342034</v>
+        <v>341884</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9886979396663119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9741276173320901</v>
+        <v>0.9684395585301916</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9973746730886707</v>
+        <v>0.9969392684746951</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>667</v>
@@ -928,19 +928,19 @@
         <v>629073</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>622683</v>
+        <v>621949</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>632775</v>
+        <v>632720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9898608462887363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9798056117954317</v>
+        <v>0.9786497189289521</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9956856499847724</v>
+        <v>0.995598100988956</v>
       </c>
     </row>
     <row r="7">
@@ -1045,19 +1045,19 @@
         <v>5858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13005</v>
+        <v>13937</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01754240240822442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006942872715255399</v>
+        <v>0.006963634075264912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03894855573308825</v>
+        <v>0.04173881480609919</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1066,19 +1066,19 @@
         <v>5858</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2282</v>
+        <v>2297</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13062</v>
+        <v>13091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01077169055430208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004196214236081064</v>
+        <v>0.004224456737097506</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02402017268495208</v>
+        <v>0.02407366621411387</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>5374</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1880</v>
+        <v>1852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11027</v>
+        <v>11798</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02560594821428185</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008956050180710591</v>
+        <v>0.00882196266270196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05253686919555866</v>
+        <v>0.05621131260626835</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1116,19 +1116,19 @@
         <v>14705</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8076</v>
+        <v>8075</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24140</v>
+        <v>24850</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04403980047178507</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02418662360598599</v>
+        <v>0.02418472642433179</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07229493124427418</v>
+        <v>0.07442117304563974</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1137,19 +1137,19 @@
         <v>20079</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11864</v>
+        <v>12246</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>31480</v>
+        <v>30398</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03692502228525715</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02181806038891398</v>
+        <v>0.02251899938920703</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05788986925845487</v>
+        <v>0.05590106577922833</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>204509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198856</v>
+        <v>198085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208003</v>
+        <v>208031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9743940517857181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9474631308044413</v>
+        <v>0.9437886873937313</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9910439498192894</v>
+        <v>0.991178037337298</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -1187,19 +1187,19 @@
         <v>313345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>302160</v>
+        <v>302106</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>321805</v>
+        <v>321547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9384177971199905</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9049213717964758</v>
+        <v>0.9047567118929333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9637536170952692</v>
+        <v>0.9629814244783217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>486</v>
@@ -1208,19 +1208,19 @@
         <v>517854</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>505971</v>
+        <v>505701</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>527743</v>
+        <v>526569</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9523032871604408</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9304503224298355</v>
+        <v>0.9299537983152769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9704893366806394</v>
+        <v>0.968330372020854</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1333,19 +1333,19 @@
         <v>6754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3231</v>
+        <v>2927</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14286</v>
+        <v>14012</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009978784360956793</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00477325294181689</v>
+        <v>0.004324428018741523</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02110702204958015</v>
+        <v>0.02070177640294852</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1354,19 +1354,19 @@
         <v>7592</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3080</v>
+        <v>3193</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14753</v>
+        <v>15509</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006438067599248701</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002611313066946573</v>
+        <v>0.002707344425303069</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01250986159808919</v>
+        <v>0.01315133483053286</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>7104</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3434</v>
+        <v>3522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14158</v>
+        <v>13962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01413746032838101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006833941962540962</v>
+        <v>0.007009777575920179</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02817784699401839</v>
+        <v>0.02778783391648132</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1404,19 +1404,19 @@
         <v>17685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10088</v>
+        <v>10270</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29615</v>
+        <v>28165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02612809468588525</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01490424926158812</v>
+        <v>0.01517378369552474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04375470705003394</v>
+        <v>0.04161230595283975</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1425,19 +1425,19 @@
         <v>24788</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15986</v>
+        <v>17047</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37366</v>
+        <v>37699</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02101926295469611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01355523492261325</v>
+        <v>0.01445468806707761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0316843184493257</v>
+        <v>0.03196710226323406</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>494524</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486818</v>
+        <v>487510</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498298</v>
+        <v>498172</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9841939605174496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.968857422983237</v>
+        <v>0.9702340947614309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9917041118893986</v>
+        <v>0.9914534745546774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>639</v>
@@ -1475,19 +1475,19 @@
         <v>652403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639844</v>
+        <v>639905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>661048</v>
+        <v>661311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9638931209531579</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9453375123919308</v>
+        <v>0.9454281418610584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9766658637456032</v>
+        <v>0.9770531233842533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1153</v>
@@ -1496,19 +1496,19 @@
         <v>1146927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1134464</v>
+        <v>1133097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1157096</v>
+        <v>1156210</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9725426694460552</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9619744879196822</v>
+        <v>0.9608153686882935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9811649434734441</v>
+        <v>0.9804137395142198</v>
       </c>
     </row>
     <row r="15">
@@ -1838,19 +1838,19 @@
         <v>2952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8209</v>
+        <v>7544</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009530598031997246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00307553932882406</v>
+        <v>0.002991918840876387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02649806877970911</v>
+        <v>0.0243515850284594</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -1859,19 +1859,19 @@
         <v>2960</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>935</v>
+        <v>946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7927</v>
+        <v>8037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008361578493825723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00264109874215407</v>
+        <v>0.002672508797440792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02239382705811217</v>
+        <v>0.02270257218211229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -1880,19 +1880,19 @@
         <v>5912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2887</v>
+        <v>2005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12607</v>
+        <v>12161</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008907158217752214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004349137374207544</v>
+        <v>0.003021036251129665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01899322679597997</v>
+        <v>0.01832039794414644</v>
       </c>
     </row>
     <row r="5">
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7480</v>
+        <v>6398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006722501021178173</v>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02414661442467915</v>
+        <v>0.02065247371957455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -1930,19 +1930,19 @@
         <v>5981</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2017</v>
+        <v>2034</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12047</v>
+        <v>12093</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01689549117829477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005696746311808641</v>
+        <v>0.005745044918872292</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03403032700713658</v>
+        <v>0.03416083853025515</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -1951,19 +1951,19 @@
         <v>8063</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3248</v>
+        <v>3971</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15011</v>
+        <v>14997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01214777141810352</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004893877141874852</v>
+        <v>0.005982072426116433</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02261387792340306</v>
+        <v>0.02259323374994202</v>
       </c>
     </row>
     <row r="6">
@@ -1980,19 +1980,19 @@
         <v>304751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>298848</v>
+        <v>298734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>307822</v>
+        <v>307865</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9837469009468246</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9646926238915642</v>
+        <v>0.9643247062243641</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9936596522036039</v>
+        <v>0.9937978808975657</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>335</v>
@@ -2001,19 +2001,19 @@
         <v>345055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>338022</v>
+        <v>338167</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>349952</v>
+        <v>349988</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9747429303278795</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.954874004389639</v>
+        <v>0.9552845090825942</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9885772174368482</v>
+        <v>0.98867660767204</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>612</v>
@@ -2022,19 +2022,19 @@
         <v>649806</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>641365</v>
+        <v>640728</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>655865</v>
+        <v>655807</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9789450703641442</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9662290332854864</v>
+        <v>0.9652681447692036</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9880735238739473</v>
+        <v>0.9879859236073235</v>
       </c>
     </row>
     <row r="7">
@@ -2126,19 +2126,19 @@
         <v>4219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1054</v>
+        <v>2004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9734</v>
+        <v>11654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01688736989720156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004218063318880417</v>
+        <v>0.008021534178889936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03895846178108286</v>
+        <v>0.04664396719647738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -2147,19 +2147,19 @@
         <v>17607</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10507</v>
+        <v>9820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28339</v>
+        <v>27975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0452635523834938</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02701048901580613</v>
+        <v>0.02524460294035626</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07285362347292063</v>
+        <v>0.07191808318807752</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -2168,19 +2168,19 @@
         <v>21826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13217</v>
+        <v>13318</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33793</v>
+        <v>33733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03416542758599073</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02068926833830121</v>
+        <v>0.02084764313396425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.052897944820225</v>
+        <v>0.05280412516348808</v>
       </c>
     </row>
     <row r="9">
@@ -2197,19 +2197,19 @@
         <v>15303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7775</v>
+        <v>8513</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25945</v>
+        <v>27645</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06125005821710359</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03111899853637997</v>
+        <v>0.03407289026065438</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1038407627256704</v>
+        <v>0.1106461652682931</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -2218,19 +2218,19 @@
         <v>14378</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7809</v>
+        <v>7991</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25445</v>
+        <v>24389</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03696230629552597</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02007572650239575</v>
+        <v>0.02054422096823094</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06541369617811893</v>
+        <v>0.06269951379225268</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -2239,19 +2239,19 @@
         <v>29681</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19923</v>
+        <v>20682</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44115</v>
+        <v>43687</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0464614171081476</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03118697620393318</v>
+        <v>0.03237541941369787</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06905593571904059</v>
+        <v>0.06838524708382471</v>
       </c>
     </row>
     <row r="10">
@@ -2268,19 +2268,19 @@
         <v>230328</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218992</v>
+        <v>217670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237627</v>
+        <v>238072</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9218625718856949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8764913459140427</v>
+        <v>0.8712010003370341</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9510732740875277</v>
+        <v>0.9528575037065241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>322</v>
@@ -2289,19 +2289,19 @@
         <v>356995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>344137</v>
+        <v>343835</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>367695</v>
+        <v>367279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9177741413209802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8847183387250078</v>
+        <v>0.8839417777657518</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9452833845818852</v>
+        <v>0.9442125010779495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>528</v>
@@ -2310,19 +2310,19 @@
         <v>587323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>570090</v>
+        <v>568849</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>601187</v>
+        <v>600638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9193731553058616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8923969879450168</v>
+        <v>0.8904538596244197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.941074953796886</v>
+        <v>0.9402162882659976</v>
       </c>
     </row>
     <row r="11">
@@ -2414,19 +2414,19 @@
         <v>7172</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3097</v>
+        <v>3081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14087</v>
+        <v>14414</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01281504064538234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00553405944379542</v>
+        <v>0.005505689737754913</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02517123669495992</v>
+        <v>0.02575518389268858</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -2435,19 +2435,19 @@
         <v>20567</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12892</v>
+        <v>12966</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32022</v>
+        <v>31211</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02768133064459723</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01735217571572035</v>
+        <v>0.0174518218939808</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04310022993242763</v>
+        <v>0.04200853710322498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -2456,19 +2456,19 @@
         <v>27738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18062</v>
+        <v>18216</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39580</v>
+        <v>41375</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02129437408746014</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01386594973487958</v>
+        <v>0.01398417608526227</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03038499261959339</v>
+        <v>0.03176311076225444</v>
       </c>
     </row>
     <row r="13">
@@ -2485,19 +2485,19 @@
         <v>17386</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10371</v>
+        <v>9767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28041</v>
+        <v>28986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03106641649654497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01853122504779899</v>
+        <v>0.0174532372469339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05010485224868552</v>
+        <v>0.05179428548364484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -2506,19 +2506,19 @@
         <v>20358</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11824</v>
+        <v>12742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31061</v>
+        <v>30823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0274013219958925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01591463312849963</v>
+        <v>0.01715062463590068</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04180651543370076</v>
+        <v>0.04148604405380475</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -2527,19 +2527,19 @@
         <v>37744</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26854</v>
+        <v>26480</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53117</v>
+        <v>52133</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02897594480728025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02061515842160028</v>
+        <v>0.02032860320750209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04077742210594641</v>
+        <v>0.04002166320179351</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>535079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523336</v>
+        <v>522665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>543292</v>
+        <v>543920</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9561185428580727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9351353915628097</v>
+        <v>0.9339358007288864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9707936743555293</v>
+        <v>0.9719148797590047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>657</v>
@@ -2577,19 +2577,19 @@
         <v>702050</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>686814</v>
+        <v>689004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>714016</v>
+        <v>714049</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9449173473595103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9244103935014045</v>
+        <v>0.9273576313906898</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.961023554742283</v>
+        <v>0.9610673766822816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1140</v>
@@ -2598,19 +2598,19 @@
         <v>1237129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1217782</v>
+        <v>1219230</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1252429</v>
+        <v>1252825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9497296811052596</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9348771994925408</v>
+        <v>0.9359884993412694</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9614752360246779</v>
+        <v>0.9617789309357729</v>
       </c>
     </row>
     <row r="15">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6666</v>
+        <v>6759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005760668495048684</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01993975134525627</v>
+        <v>0.02021548985777366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6954</v>
+        <v>6401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002704656544372788</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009765866849702699</v>
+        <v>0.008989689713407641</v>
       </c>
     </row>
     <row r="5">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7408</v>
+        <v>5982</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005920034459368894</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02215860803359795</v>
+        <v>0.01789292364730518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3024,19 +3024,19 @@
         <v>5189</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1954</v>
+        <v>1995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11256</v>
+        <v>11641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01373719957995891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005171285097897905</v>
+        <v>0.005282183455194754</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02979616616243581</v>
+        <v>0.03081654208412271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -3045,19 +3045,19 @@
         <v>7169</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3026</v>
+        <v>3006</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14201</v>
+        <v>14100</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0100670097712555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004250119651445792</v>
+        <v>0.004221643081461599</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01994322080272598</v>
+        <v>0.01980080291690783</v>
       </c>
     </row>
     <row r="6">
@@ -3074,19 +3074,19 @@
         <v>330425</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>323501</v>
+        <v>324565</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>333306</v>
+        <v>333314</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9883192970455824</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9676091213710066</v>
+        <v>0.9707930456488952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9969363263545191</v>
+        <v>0.996960542248348</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>349</v>
@@ -3095,19 +3095,19 @@
         <v>372573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>366506</v>
+        <v>366121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>375808</v>
+        <v>375767</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9862628004200411</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9702038338375643</v>
+        <v>0.9691834579158773</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9948287149021021</v>
+        <v>0.9947178165448053</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>670</v>
@@ -3116,19 +3116,19 @@
         <v>702997</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>695950</v>
+        <v>694840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>707932</v>
+        <v>707250</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9872283336843717</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.977331303888085</v>
+        <v>0.9757720912907076</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9941573883468541</v>
+        <v>0.9932000109549658</v>
       </c>
     </row>
     <row r="7">
@@ -3220,19 +3220,19 @@
         <v>3542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8117</v>
+        <v>8115</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01378098046989796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003518585038607525</v>
+        <v>0.003528225979896615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0315847844399885</v>
+        <v>0.03157465529245829</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3241,19 +3241,19 @@
         <v>9441</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3863</v>
+        <v>3830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19593</v>
+        <v>19514</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02359335876748683</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009654466115913675</v>
+        <v>0.009570562667969469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04896208769810778</v>
+        <v>0.04876501303365074</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -3262,19 +3262,19 @@
         <v>12983</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6560</v>
+        <v>6491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22706</v>
+        <v>22916</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01975603643348036</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00998258528445703</v>
+        <v>0.009877443382532701</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03455209268016838</v>
+        <v>0.03487063378926029</v>
       </c>
     </row>
     <row r="9">
@@ -3291,19 +3291,19 @@
         <v>10221</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5277</v>
+        <v>5681</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16343</v>
+        <v>17960</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03977023702520077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02053255914369707</v>
+        <v>0.02210613117566902</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06359112252657408</v>
+        <v>0.06988568344149713</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3312,19 +3312,19 @@
         <v>8920</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3854</v>
+        <v>3750</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19085</v>
+        <v>17958</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02228980368812724</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00963014460650005</v>
+        <v>0.009370526868008815</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04769242366917311</v>
+        <v>0.04487622182778874</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -3333,19 +3333,19 @@
         <v>19141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11010</v>
+        <v>12023</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28941</v>
+        <v>29147</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02912586883137046</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01675323297052835</v>
+        <v>0.01829546695408739</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04403953306645854</v>
+        <v>0.04435241959201407</v>
       </c>
     </row>
     <row r="10">
@@ -3362,19 +3362,19 @@
         <v>243235</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>235764</v>
+        <v>234412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>248809</v>
+        <v>248707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9464487825049013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9173754463531492</v>
+        <v>0.9121158534616727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9681350255777321</v>
+        <v>0.9677408851547492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>287</v>
@@ -3383,19 +3383,19 @@
         <v>381808</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>369752</v>
+        <v>370248</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>389639</v>
+        <v>389542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9541168375443859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9239886734272656</v>
+        <v>0.9252297389614048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9736855735126152</v>
+        <v>0.9734446807940448</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>573</v>
@@ -3404,19 +3404,19 @@
         <v>625043</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>612552</v>
+        <v>611633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>635452</v>
+        <v>634618</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9511180947351492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9321107831173133</v>
+        <v>0.9307118493432557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9669564155147663</v>
+        <v>0.9656868336961926</v>
       </c>
     </row>
     <row r="11">
@@ -3508,19 +3508,19 @@
         <v>5468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2518</v>
+        <v>2641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11695</v>
+        <v>11829</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009246389023633096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004258976510613297</v>
+        <v>0.00446570114790034</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01977822276548868</v>
+        <v>0.02000448643722856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3529,19 +3529,19 @@
         <v>9441</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3749</v>
+        <v>3776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18311</v>
+        <v>18522</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01213646295226256</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004819405425333517</v>
+        <v>0.004853905778830279</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02353749331326708</v>
+        <v>0.02380964118619344</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3550,19 +3550,19 @@
         <v>14909</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7712</v>
+        <v>7612</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25522</v>
+        <v>23890</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01088835603204506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005632408052102133</v>
+        <v>0.005559268966360116</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01863919728599998</v>
+        <v>0.01744761449055322</v>
       </c>
     </row>
     <row r="13">
@@ -3579,19 +3579,19 @@
         <v>12200</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6636</v>
+        <v>6886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20006</v>
+        <v>19213</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02063172477147526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01122216033787344</v>
+        <v>0.01164454292966053</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03383208634079743</v>
+        <v>0.03249158621987115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -3600,19 +3600,19 @@
         <v>14109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7568</v>
+        <v>7316</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23176</v>
+        <v>22778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01813667334404181</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00972896518560739</v>
+        <v>0.009404185247393547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0297918206498631</v>
+        <v>0.02927964159583281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -3621,19 +3621,19 @@
         <v>26309</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16989</v>
+        <v>17046</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37350</v>
+        <v>38147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01921418590246796</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01240743075940439</v>
+        <v>0.01244934228057986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02727736918134331</v>
+        <v>0.02785945985364659</v>
       </c>
     </row>
     <row r="14">
@@ -3650,19 +3650,19 @@
         <v>573660</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>564810</v>
+        <v>563887</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>580403</v>
+        <v>580085</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9701218862048916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9551557465414221</v>
+        <v>0.9535949488093393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9815248110086831</v>
+        <v>0.9809875254299332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>636</v>
@@ -3671,19 +3671,19 @@
         <v>754381</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>742882</v>
+        <v>741490</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>764127</v>
+        <v>763083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9697268637036957</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9549452713131208</v>
+        <v>0.9531563918275667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9822550729501399</v>
+        <v>0.9809137304077346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1243</v>
@@ -3692,19 +3692,19 @@
         <v>1328041</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1314535</v>
+        <v>1314356</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1339881</v>
+        <v>1340697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.969897458065487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.960033762157668</v>
+        <v>0.9599028173424158</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9785447480927153</v>
+        <v>0.9791403682158067</v>
       </c>
     </row>
     <row r="15">
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3301</v>
+        <v>3383</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002262609025927677</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008108937783727668</v>
+        <v>0.008310658829306931</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4055,19 +4055,19 @@
         <v>1729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4626</v>
+        <v>4795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003940162287644265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001039102255726678</v>
+        <v>0.001037655211133877</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01054359376263134</v>
+        <v>0.01093005706871073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4076,19 +4076,19 @@
         <v>2650</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>918</v>
+        <v>883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6472</v>
+        <v>5850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003132777050609271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001085716452752839</v>
+        <v>0.001043888287499775</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007652020392181299</v>
+        <v>0.006915875567475496</v>
       </c>
     </row>
     <row r="5">
@@ -4105,19 +4105,19 @@
         <v>5656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2536</v>
+        <v>2699</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12008</v>
+        <v>11550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01389512585944751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006229844213808097</v>
+        <v>0.006629512491892513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0294977665123491</v>
+        <v>0.02837310412564864</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4126,19 +4126,19 @@
         <v>3154</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1345</v>
+        <v>1490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6819</v>
+        <v>7463</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007188434530960388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003064601235345262</v>
+        <v>0.00339641212050525</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01554179860287562</v>
+        <v>0.0170113514422209</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -4147,19 +4147,19 @@
         <v>8810</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4946</v>
+        <v>4645</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14280</v>
+        <v>14441</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01041628052044047</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005847425869725764</v>
+        <v>0.005491563718966734</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01688305581002423</v>
+        <v>0.01707302675395111</v>
       </c>
     </row>
     <row r="6">
@@ -4176,19 +4176,19 @@
         <v>400503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>393902</v>
+        <v>394807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>403653</v>
+        <v>403595</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9838422651146248</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.967628532982413</v>
+        <v>0.9698510362966979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9915826557108138</v>
+        <v>0.9914391639718964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>816</v>
@@ -4197,19 +4197,19 @@
         <v>433852</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>429879</v>
+        <v>429307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>436379</v>
+        <v>436211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9888714031813953</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9798168784981082</v>
+        <v>0.9785126118763835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9946331842416982</v>
+        <v>0.9942498292281402</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1376</v>
@@ -4218,19 +4218,19 @@
         <v>834354</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>827948</v>
+        <v>827809</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>838648</v>
+        <v>838856</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9864509424289503</v>
+        <v>0.9864509424289504</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9788776320833602</v>
+        <v>0.9787125006512629</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9915274962846532</v>
+        <v>0.9917738628540769</v>
       </c>
     </row>
     <row r="7">
@@ -4322,19 +4322,19 @@
         <v>1771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>605</v>
+        <v>480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4345</v>
+        <v>4619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005736245598252495</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001959445333185264</v>
+        <v>0.001556388633582485</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01407643461364884</v>
+        <v>0.01496597946974355</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -4343,19 +4343,19 @@
         <v>11369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6456</v>
+        <v>6613</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19174</v>
+        <v>18556</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02450083055566603</v>
+        <v>0.02450083055566602</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01391323657505914</v>
+        <v>0.0142520213870657</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04132206097901296</v>
+        <v>0.03999051722200455</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>22</v>
@@ -4364,19 +4364,19 @@
         <v>13139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8516</v>
+        <v>8056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20783</v>
+        <v>20099</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01700487852898758</v>
+        <v>0.01700487852898759</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01102146836491726</v>
+        <v>0.01042624898414105</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02689749486719881</v>
+        <v>0.0260125539489058</v>
       </c>
     </row>
     <row r="9">
@@ -4393,19 +4393,19 @@
         <v>7029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3552</v>
+        <v>3408</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12092</v>
+        <v>12202</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02277274831356882</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01150886019884397</v>
+        <v>0.01104046608240187</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03917741400525639</v>
+        <v>0.03953361620776323</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -4414,19 +4414,19 @@
         <v>31646</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24422</v>
+        <v>23371</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41300</v>
+        <v>40040</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06820081124713891</v>
+        <v>0.06820081124713889</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05263318996076108</v>
+        <v>0.05036905602564014</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08900724778400546</v>
+        <v>0.08629200742475106</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -4435,19 +4435,19 @@
         <v>38675</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28817</v>
+        <v>30778</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48155</v>
+        <v>49266</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05005350976470272</v>
+        <v>0.05005350976470273</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03729621470434193</v>
+        <v>0.0398340749822827</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06232282288062137</v>
+        <v>0.06376088770337261</v>
       </c>
     </row>
     <row r="10">
@@ -4464,19 +4464,19 @@
         <v>299859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>294376</v>
+        <v>294296</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>303568</v>
+        <v>303736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9714910060881786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9537264411249992</v>
+        <v>0.9534678652867602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9835047719093118</v>
+        <v>0.9840503279000206</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>806</v>
@@ -4485,19 +4485,19 @@
         <v>420991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>410063</v>
+        <v>410597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>429892</v>
+        <v>430581</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9072983581971951</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8837461394468574</v>
+        <v>0.8848967505960292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9264816009373421</v>
+        <v>0.927965376120683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1247</v>
@@ -4506,19 +4506,19 @@
         <v>720850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>708808</v>
+        <v>708609</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>731533</v>
+        <v>730745</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9329416117063096</v>
+        <v>0.9329416117063097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9173554247212871</v>
+        <v>0.9170991443613719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9467675876384715</v>
+        <v>0.9457479259823494</v>
       </c>
     </row>
     <row r="11">
@@ -4610,19 +4610,19 @@
         <v>2692</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1111</v>
+        <v>1181</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5476</v>
+        <v>6130</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.003760598105823205</v>
+        <v>0.003760598105823204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001552647488826855</v>
+        <v>0.001650695147435617</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.007650918328751711</v>
+        <v>0.008564867318825315</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -4631,19 +4631,19 @@
         <v>13097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8332</v>
+        <v>7631</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20942</v>
+        <v>21049</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01450828022849856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009229740932860742</v>
+        <v>0.008453623169481691</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02319818670498809</v>
+        <v>0.02331728803175934</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -4652,19 +4652,19 @@
         <v>15789</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10310</v>
+        <v>10236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24054</v>
+        <v>24425</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00975534086042785</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006370102008576564</v>
+        <v>0.006324649597054075</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01486210034258747</v>
+        <v>0.01509153305455877</v>
       </c>
     </row>
     <row r="13">
@@ -4681,19 +4681,19 @@
         <v>12685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7946</v>
+        <v>7957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19784</v>
+        <v>19289</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01772355788301084</v>
+        <v>0.01772355788301083</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01110176386107071</v>
+        <v>0.01111703548027171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02764191807503546</v>
+        <v>0.02695009142508027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -4702,19 +4702,19 @@
         <v>34799</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27821</v>
+        <v>26792</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44291</v>
+        <v>44040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03854860165117262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03081797334035595</v>
+        <v>0.02967890769982581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04906264907619068</v>
+        <v>0.04878511950507799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -4723,19 +4723,19 @@
         <v>47485</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37700</v>
+        <v>38620</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>58982</v>
+        <v>58806</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02933915823465546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02329344831372117</v>
+        <v>0.02386197835087667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03644295239206292</v>
+        <v>0.03633413672114417</v>
       </c>
     </row>
     <row r="14">
@@ -4752,19 +4752,19 @@
         <v>700361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>692484</v>
+        <v>693234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>705550</v>
+        <v>705542</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9785158440111658</v>
+        <v>0.978515844011166</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9675098066976011</v>
+        <v>0.9685585027302359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.985766275245484</v>
+        <v>0.9857550748115745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1622</v>
@@ -4773,19 +4773,19 @@
         <v>854843</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>843305</v>
+        <v>842228</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>863834</v>
+        <v>863612</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9469431181203287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9341612838361965</v>
+        <v>0.9329682044248883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9569020394522617</v>
+        <v>0.9566560248446028</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2623</v>
@@ -4794,19 +4794,19 @@
         <v>1555204</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1541880</v>
+        <v>1541293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1565937</v>
+        <v>1567059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9609055009049168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9526729554412702</v>
+        <v>0.9523102853717936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9675369250683695</v>
+        <v>0.9682297359156516</v>
       </c>
     </row>
     <row r="15">
